--- a/NEW Templates/NEW Template_Produit_EEE_CrystalchainMonoprix.xlsx
+++ b/NEW Templates/NEW Template_Produit_EEE_CrystalchainMonoprix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathias/Crystalchain Dropbox/Equipe/Projets/PRIME/AGEC/40 - Clients/Monoprix/Batch Fournisseurs/NEW Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive partagés\7 - Projects\Trace\PRIME\AGEC\40 - Clients\Monoprix\Batch Fournisseurs\NEW Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7564A08B-9F7E-9347-B4AC-1970B2F5E3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E6736-50C9-4838-BA13-E3A532009E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
@@ -3382,9 +3382,6 @@
 Recyclability</t>
   </si>
   <si>
-    <t>Incorporation de matière recyclée (%)_x000B_Incorporation of recycled material (%)</t>
-  </si>
-  <si>
     <t>Substances dangereuses
 Hazardous substances</t>
   </si>
@@ -3514,13 +3511,17 @@
   </si>
   <si>
     <t>Lisseur plaques en céramique, température réglable 150-230°C.</t>
+  </si>
+  <si>
+    <t>Incorporation de matière recyclée (%)
+Incorporation of recycled material (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3817,9 +3818,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3846,6 +3844,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8121,21 +8122,14 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Format"/>
-      <sheetName val="PRODUIT-AGEC"/>
-      <sheetName val="data"/>
+      <sheetName val="ALPARGATAS SLU_Template_Produit"/>
     </sheetNames>
     <definedNames>
       <definedName name="convertUTF8"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8444,7 +8438,7 @@
       <selection activeCell="G1" sqref="G1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -8456,7 +8450,7 @@
     <col min="14" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
@@ -8473,7 +8467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -8488,7 +8482,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -8501,7 +8495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8514,7 +8508,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -8527,7 +8521,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -8540,7 +8534,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -8555,7 +8549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -8568,7 +8562,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -8606,7 +8600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -8619,7 +8613,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -8648,7 +8642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -8663,7 +8657,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -8676,7 +8670,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -8700,7 +8694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
@@ -8716,7 +8710,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
         <v>68</v>
       </c>
@@ -8732,7 +8726,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="9" t="s">
         <v>69</v>
       </c>
@@ -8748,7 +8742,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:18" s="23" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="23" customFormat="1" ht="62">
       <c r="A18" s="19" t="s">
         <v>70</v>
       </c>
@@ -8765,7 +8759,7 @@
       <c r="G18" s="24"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8792,7 +8786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -8805,7 +8799,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
@@ -8837,7 +8831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
@@ -8850,7 +8844,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
@@ -8863,7 +8857,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="9" t="s">
         <v>16</v>
       </c>
@@ -8887,7 +8881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
@@ -8900,7 +8894,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
@@ -8913,7 +8907,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
@@ -8926,7 +8920,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="9" t="s">
         <v>19</v>
       </c>
@@ -8939,7 +8933,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
@@ -8952,7 +8946,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
@@ -8965,7 +8959,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
@@ -8978,7 +8972,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
@@ -8991,7 +8985,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
@@ -9004,7 +8998,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>23</v>
       </c>
@@ -9017,7 +9011,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9" t="s">
         <v>24</v>
       </c>
@@ -9030,7 +9024,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
         <v>25</v>
       </c>
@@ -9061,11 +9055,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA37F5C3-7354-694B-9426-36415606EC13}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -9101,7 +9095,7 @@
     <col min="34" max="34" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="53" hidden="1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -9118,7 +9112,7 @@
         <v>86</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -9205,7 +9199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="36" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="35" customFormat="1" ht="106" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>87</v>
       </c>
@@ -9222,7 +9216,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>91</v>
@@ -9233,312 +9227,327 @@
       <c r="I2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="R2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="U2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="W2" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="X2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="Y2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Z2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="AA2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AH2" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="37" customFormat="1">
+      <c r="A3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="39">
+        <v>4006381333931</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="37">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="37">
+        <v>0</v>
+      </c>
+      <c r="S3" s="37">
+        <v>0</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="37" customFormat="1">
+      <c r="A4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="39">
+        <v>5012345678901</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="37">
+        <v>0</v>
+      </c>
+      <c r="S4" s="37">
+        <v>0</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA4" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="37" customFormat="1">
+      <c r="A5" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="39">
+        <v>9780201379624</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="37">
         <v>20</v>
       </c>
-      <c r="AC2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH2" s="35" t="s">
+      <c r="K5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>6</v>
+      </c>
+      <c r="R5" s="37">
+        <v>0</v>
+      </c>
+      <c r="S5" s="37">
+        <v>0</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="37" customFormat="1">
+      <c r="A6" s="37" t="s">
         <v>109</v>
       </c>
+      <c r="B6" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="40">
+        <v>3607343214682</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="37">
+        <v>0</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="37">
+        <v>1</v>
+      </c>
+      <c r="S6" s="37">
+        <v>2</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="40">
-        <v>4006381333931</v>
-      </c>
-      <c r="G3" s="38" t="s">
+    <row r="7" spans="1:34" s="37" customFormat="1">
+      <c r="A7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="40">
+        <v>8806085947126</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="J7" s="37">
+        <v>100</v>
+      </c>
+      <c r="K7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R7" s="37">
         <v>0</v>
       </c>
-      <c r="S3" s="38">
-        <v>0</v>
-      </c>
-      <c r="X3" s="38" t="s">
+      <c r="S7" s="37">
+        <v>1</v>
+      </c>
+      <c r="U7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="40">
-        <v>5012345678901</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="38">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38">
-        <v>0</v>
-      </c>
-      <c r="X4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA4" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="40">
-        <v>9780201379624</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>6</v>
-      </c>
-      <c r="R5" s="38">
-        <v>0</v>
-      </c>
-      <c r="S5" s="38">
-        <v>0</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="X5" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="41">
-        <v>3607343214682</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="38">
-        <v>1</v>
-      </c>
-      <c r="S6" s="38">
-        <v>2</v>
-      </c>
-      <c r="U6" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z6" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA6" s="38" t="s">
+      <c r="Z7" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA7" s="37" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="41">
-        <v>8806085947126</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="38">
-        <v>0</v>
-      </c>
-      <c r="S7" s="38">
-        <v>1</v>
-      </c>
-      <c r="U7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA7" s="38" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
